--- a/src/test/resources/case/getEducation.xlsx
+++ b/src/test/resources/case/getEducation.xlsx
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/nchr/personresume/geteducation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取教育背景信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +93,10 @@
   </si>
   <si>
     <t>nchr.release.microfastup.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/personresume/geteducation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +428,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,10 +463,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -475,10 +475,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -523,7 +523,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
